--- a/translation/xlsx/_tsum_002_2.xlsx
+++ b/translation/xlsx/_tsum_002_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="1025">
   <si>
     <t>actor</t>
   </si>
@@ -2031,7 +2031,7 @@
     <t>Man</t>
   </si>
   <si>
-    <t>「ここ、こいつチケットを持っているでござるよー！！」</t>
+    <t>!s「ここ、こいつチケットを持っているでござるよー！！」</t>
   </si>
   <si>
     <t>\"This guy has a ticket!!\"</t>
@@ -3042,15 +3042,18 @@
     <t>\"Yep, roger that.</t>
   </si>
   <si>
+    <t xml:space="preserve">\"응, 그러자. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\응, 알겠어. </t>
+  </si>
+  <si>
+    <t>응, 알았어.</t>
+  </si>
+  <si>
     <t xml:space="preserve">\응, 그러자. </t>
   </si>
   <si>
-    <t xml:space="preserve">\응, 알겠어. </t>
-  </si>
-  <si>
-    <t>응, 알았어.</t>
-  </si>
-  <si>
     <t>魅ぃちゃんや沙都子ちゃんを相手に回すよりは、…簡単かな？　かな？」</t>
   </si>
   <si>
@@ -3153,13 +3156,16 @@
     <t>\"Yeah!!\"</t>
   </si>
   <si>
+    <t>\"그래!!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\"오우!!\' </t>
+  </si>
+  <si>
+    <t>오옷!!</t>
+  </si>
+  <si>
     <t xml:space="preserve">\"그래!!\' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\"오우!!\' </t>
-  </si>
-  <si>
-    <t>오옷!!</t>
   </si>
   <si>
     <t xml:space="preserve">　敵は約２０騎、３０騎！</t>
@@ -8170,7 +8176,7 @@
       <c r="A130" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="9" t="s">
         <v>641</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -10572,12 +10578,12 @@
         <v>969</v>
       </c>
       <c r="P196" s="5" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" s="2"/>
       <c r="S196" s="5" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="T196" s="2"/>
       <c r="U196" s="2"/>
@@ -10590,29 +10596,29 @@
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E197" s="2"/>
       <c r="M197" s="6"/>
       <c r="N197" s="5" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="O197" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="P197" s="5" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="Q197" s="2"/>
       <c r="R197" s="2"/>
       <c r="S197" s="5" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="T197" s="2"/>
       <c r="U197" s="2"/>
@@ -10627,29 +10633,29 @@
         <v>32</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E198" s="2"/>
       <c r="M198" s="6"/>
       <c r="N198" s="5" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="O198" t="s">
+        <v>980</v>
+      </c>
+      <c r="P198" s="5" t="s">
         <v>979</v>
-      </c>
-      <c r="P198" s="5" t="s">
-        <v>978</v>
       </c>
       <c r="Q198" s="2"/>
       <c r="R198" s="2"/>
       <c r="S198" s="5" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="T198" s="2"/>
       <c r="U198" s="2"/>
@@ -10662,29 +10668,29 @@
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E199" s="2"/>
       <c r="M199" s="6"/>
       <c r="N199" s="9" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="O199" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="P199" s="9" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
       <c r="S199" s="9" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="T199" s="2"/>
       <c r="U199" s="2"/>
@@ -10697,29 +10703,29 @@
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="4" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E200" s="2"/>
       <c r="M200" s="6"/>
       <c r="N200" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="O200" t="s">
+        <v>991</v>
+      </c>
+      <c r="P200" s="5" t="s">
         <v>989</v>
-      </c>
-      <c r="O200" t="s">
-        <v>990</v>
-      </c>
-      <c r="P200" s="5" t="s">
-        <v>988</v>
       </c>
       <c r="Q200" s="2"/>
       <c r="R200" s="2"/>
       <c r="S200" s="5" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="T200" s="2"/>
       <c r="U200" s="2"/>
@@ -10734,29 +10740,29 @@
         <v>48</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E201" s="2"/>
       <c r="M201" s="6"/>
       <c r="N201" s="5" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="O201" t="s">
+        <v>996</v>
+      </c>
+      <c r="P201" s="5" t="s">
         <v>995</v>
-      </c>
-      <c r="P201" s="5" t="s">
-        <v>994</v>
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" s="2"/>
       <c r="S201" s="5" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="T201" s="2"/>
       <c r="U201" s="2"/>
@@ -10769,29 +10775,29 @@
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="4" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E202" s="2"/>
       <c r="M202" s="6"/>
       <c r="N202" s="9" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O202" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="P202" s="9" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="Q202" s="2"/>
       <c r="R202" s="2"/>
       <c r="S202" s="9" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="T202" s="2"/>
       <c r="U202" s="2"/>
@@ -10806,29 +10812,29 @@
         <v>32</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E203" s="2"/>
       <c r="M203" s="6"/>
       <c r="N203" s="5" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="O203" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="P203" s="5" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="Q203" s="2"/>
       <c r="R203" s="2"/>
       <c r="S203" s="5" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="T203" s="2"/>
       <c r="U203" s="2"/>
@@ -10841,29 +10847,29 @@
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="4" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="E204" s="2"/>
       <c r="M204" s="6"/>
       <c r="N204" s="9" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="O204" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P204" s="9" t="s">
         <v>1011</v>
-      </c>
-      <c r="P204" s="9" t="s">
-        <v>1009</v>
       </c>
       <c r="Q204" s="2"/>
       <c r="R204" s="2"/>
       <c r="S204" s="9" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="T204" s="2"/>
       <c r="U204" s="2"/>
@@ -10876,29 +10882,29 @@
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="4" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E205" s="2"/>
       <c r="M205" s="6"/>
       <c r="N205" s="9" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="O205" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P205" s="9" t="s">
         <v>1016</v>
-      </c>
-      <c r="P205" s="9" t="s">
-        <v>1014</v>
       </c>
       <c r="Q205" s="2"/>
       <c r="R205" s="2"/>
       <c r="S205" s="9" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="T205" s="2"/>
       <c r="U205" s="2"/>
@@ -10911,29 +10917,29 @@
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="4" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="E206" s="2"/>
       <c r="M206" s="6"/>
       <c r="N206" s="5" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="O206" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="P206" s="5" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="Q206" s="2"/>
       <c r="R206" s="2"/>
       <c r="S206" s="5" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="T206" s="2"/>
       <c r="U206" s="2"/>
@@ -10951,7 +10957,7 @@
       <c r="E207" s="2"/>
       <c r="M207" s="6"/>
       <c r="N207" s="12" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" s="2"/>
@@ -10974,7 +10980,7 @@
       <c r="E208" s="2"/>
       <c r="M208" s="6"/>
       <c r="N208" s="12" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" s="2"/>
@@ -10997,7 +11003,7 @@
       <c r="E209" s="2"/>
       <c r="M209" s="6"/>
       <c r="N209" s="12" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" s="2"/>
@@ -11020,7 +11026,7 @@
       <c r="E210" s="2"/>
       <c r="M210" s="6"/>
       <c r="N210" s="12" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" s="2"/>
@@ -11043,7 +11049,7 @@
       <c r="E211" s="2"/>
       <c r="M211" s="6"/>
       <c r="N211" s="12" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
@@ -11066,7 +11072,7 @@
       <c r="E212" s="2"/>
       <c r="M212" s="6"/>
       <c r="N212" s="12" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
@@ -11089,7 +11095,7 @@
       <c r="E213" s="2"/>
       <c r="M213" s="6"/>
       <c r="N213" s="12" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O213" s="2"/>
       <c r="P213" s="2"/>
@@ -11112,7 +11118,7 @@
       <c r="E214" s="2"/>
       <c r="M214" s="6"/>
       <c r="N214" s="12" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" s="2"/>
@@ -11135,7 +11141,7 @@
       <c r="E215" s="2"/>
       <c r="M215" s="6"/>
       <c r="N215" s="12" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" s="2"/>
@@ -11158,7 +11164,7 @@
       <c r="E216" s="2"/>
       <c r="M216" s="6"/>
       <c r="N216" s="12" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
@@ -11181,7 +11187,7 @@
       <c r="E217" s="2"/>
       <c r="M217" s="6"/>
       <c r="N217" s="12" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
@@ -11204,7 +11210,7 @@
       <c r="E218" s="2"/>
       <c r="M218" s="6"/>
       <c r="N218" s="12" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O218" s="2"/>
       <c r="P218" s="2"/>
@@ -11227,7 +11233,7 @@
       <c r="E219" s="2"/>
       <c r="M219" s="6"/>
       <c r="N219" s="12" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
@@ -11250,7 +11256,7 @@
       <c r="E220" s="2"/>
       <c r="M220" s="6"/>
       <c r="N220" s="12" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O220" s="2"/>
       <c r="P220" s="2"/>
@@ -11273,7 +11279,7 @@
       <c r="E221" s="2"/>
       <c r="M221" s="6"/>
       <c r="N221" s="12" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" s="2"/>
@@ -11296,7 +11302,7 @@
       <c r="E222" s="2"/>
       <c r="M222" s="6"/>
       <c r="N222" s="12" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
